--- a/codes/test_shell_output/testPREP_NEW.xlsx
+++ b/codes/test_shell_output/testPREP_NEW.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>1 &amp; إلى &amp; 0</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>1 &amp; ب+ &amp; 0</t>
+  </si>
+  <si>
+    <t>1 &amp; حتى &amp; 0</t>
   </si>
   <si>
     <t>1 &amp; على &amp; 0</t>
@@ -44,6 +47,9 @@
   </si>
   <si>
     <t>1 &amp; من &amp; 0</t>
+  </si>
+  <si>
+    <t>1 &amp; منذ &amp; 0</t>
   </si>
 </sst>
 </file>
@@ -405,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:CW41"/>
+  <dimension ref="B2:CW49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -418,314 +424,314 @@
     </row>
     <row r="3" spans="2:101">
       <c r="B3" s="2">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:101">
       <c r="B4" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
     </row>
     <row r="5" spans="2:101">
       <c r="B5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="C5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="D5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="E5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="F5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="G5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="H5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="I5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="J5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="K5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="L5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="M5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="N5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="O5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="P5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="Q5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="R5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="S5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="T5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="U5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="V5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="W5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="X5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="Y5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="Z5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="AA5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="AB5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="AC5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="AD5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="AE5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="AF5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="AG5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="AH5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="AI5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="AJ5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="AK5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="AL5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="AM5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="AN5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="AO5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="AP5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="AQ5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="AR5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="AS5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="AT5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="AU5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="AV5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="AW5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="AX5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="AY5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="AZ5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="BA5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="BB5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="BC5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="BD5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="BE5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="BF5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="BG5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="BH5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="BI5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="BJ5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="BK5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="BL5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="BM5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="BN5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="BO5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="BP5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="BQ5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="BR5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="BS5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="BT5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="BU5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="BV5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="BW5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="BX5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="BY5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="BZ5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="CA5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="CB5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="CC5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="CD5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="CE5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="CF5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="CG5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="CH5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="CI5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="CJ5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="CK5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="CL5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="CM5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="CN5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="CO5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="CP5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="CQ5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="CR5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="CS5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="CT5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="CU5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="CV5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
       <c r="CW5" s="2">
-        <v>1.063829787234043</v>
+        <v>7.725321888412017</v>
       </c>
     </row>
     <row r="6" spans="2:101">
@@ -735,314 +741,314 @@
     </row>
     <row r="7" spans="2:101">
       <c r="B7" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:101">
       <c r="B8" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
     </row>
     <row r="9" spans="2:101">
       <c r="B9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="C9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="D9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="E9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="F9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="G9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="H9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="I9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="J9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="K9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="L9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="M9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="N9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="O9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="P9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="Q9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="R9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="S9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="T9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="U9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="V9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="W9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="X9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="Y9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="Z9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="AA9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="AB9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="AC9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="AD9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="AE9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="AF9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="AG9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="AH9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="AI9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="AJ9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="AK9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="AL9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="AM9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="AN9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="AO9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="AP9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="AQ9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="AR9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="AS9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="AT9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="AU9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="AV9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="AW9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="AX9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="AY9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="AZ9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="BA9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="BB9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="BC9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="BD9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="BE9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="BF9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="BG9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="BH9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="BI9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="BJ9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="BK9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="BL9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="BM9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="BN9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="BO9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="BP9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="BQ9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="BR9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="BS9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="BT9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="BU9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="BV9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="BW9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="BX9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="BY9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="BZ9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="CA9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="CB9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="CC9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="CD9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="CE9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="CF9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="CG9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="CH9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="CI9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="CJ9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="CK9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="CL9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="CM9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="CN9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="CO9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="CP9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="CQ9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="CR9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="CS9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="CT9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="CU9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="CV9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="CW9" s="2">
-        <v>1.063829787234043</v>
+        <v>4.721030042918455</v>
       </c>
     </row>
     <row r="10" spans="2:101">
@@ -1052,314 +1058,314 @@
     </row>
     <row r="11" spans="2:101">
       <c r="B11" s="2">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="2:101">
       <c r="B12" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
     </row>
     <row r="13" spans="2:101">
       <c r="B13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="C13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="D13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="E13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="F13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="G13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="H13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="I13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="J13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="K13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="L13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="M13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="N13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="O13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="P13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="Q13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="R13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="S13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="T13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="U13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="V13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="W13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="X13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="Y13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="Z13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="AA13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="AB13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="AC13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="AD13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="AE13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="AF13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="AG13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="AH13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="AI13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="AJ13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="AK13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="AL13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="AM13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="AN13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="AO13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="AP13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="AQ13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="AR13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="AS13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="AT13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="AU13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="AV13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="AW13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="AX13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="AY13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="AZ13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="BA13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="BB13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="BC13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="BD13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="BE13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="BF13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="BG13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="BH13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="BI13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="BJ13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="BK13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="BL13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="BM13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="BN13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="BO13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="BP13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="BQ13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="BR13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="BS13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="BT13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="BU13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="BV13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="BW13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="BX13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="BY13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="BZ13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="CA13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="CB13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="CC13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="CD13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="CE13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="CF13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="CG13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="CH13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="CI13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="CJ13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="CK13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="CL13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="CM13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="CN13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="CO13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="CP13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="CQ13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="CR13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="CS13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="CT13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="CU13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="CV13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
       <c r="CW13" s="2">
-        <v>8.51063829787234</v>
+        <v>19.31330472103004</v>
       </c>
     </row>
     <row r="14" spans="2:101">
@@ -1369,314 +1375,314 @@
     </row>
     <row r="15" spans="2:101">
       <c r="B15" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="2:101">
       <c r="B16" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
     </row>
     <row r="17" spans="2:101">
       <c r="B17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="C17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="D17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="E17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="F17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="G17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="H17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="I17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="J17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="K17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="L17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="M17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="N17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="O17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="P17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="Q17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="R17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="S17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="T17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="U17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="V17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="W17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="X17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="Y17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="Z17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="AA17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="AB17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="AC17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="AD17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="AE17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="AF17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="AG17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="AH17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="AI17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="AJ17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="AK17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="AL17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="AM17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="AN17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="AO17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="AP17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="AQ17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="AR17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="AS17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="AT17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="AU17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="AV17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="AW17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="AX17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="AY17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="AZ17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="BA17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="BB17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="BC17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="BD17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="BE17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="BF17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="BG17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="BH17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="BI17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="BJ17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="BK17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="BL17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="BM17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="BN17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="BO17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="BP17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="BQ17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="BR17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="BS17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="BT17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="BU17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="BV17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="BW17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="BX17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="BY17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="BZ17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="CA17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="CB17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="CC17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="CD17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="CE17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="CF17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="CG17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="CH17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="CI17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="CJ17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="CK17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="CL17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="CM17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="CN17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="CO17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="CP17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="CQ17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="CR17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="CS17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="CT17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="CU17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="CV17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
       <c r="CW17" s="2">
-        <v>5.319148936170213</v>
+        <v>3.862660944206008</v>
       </c>
     </row>
     <row r="18" spans="2:101">
@@ -1686,314 +1692,314 @@
     </row>
     <row r="19" spans="2:101">
       <c r="B19" s="2">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="2:101">
       <c r="B20" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
     </row>
     <row r="21" spans="2:101">
       <c r="B21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="C21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="D21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="E21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="F21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="G21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="H21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="I21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="J21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="K21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="L21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="M21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="N21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="O21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="P21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="Q21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="R21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="S21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="T21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="U21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="V21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="W21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="X21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="Y21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="Z21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="AA21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="AB21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="AC21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="AD21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="AE21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="AF21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="AG21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="AH21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="AI21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="AJ21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="AK21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="AL21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="AM21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="AN21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="AO21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="AP21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="AQ21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="AR21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="AS21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="AT21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="AU21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="AV21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="AW21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="AX21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="AY21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="AZ21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="BA21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="BB21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="BC21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="BD21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="BE21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="BF21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="BG21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="BH21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="BI21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="BJ21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="BK21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="BL21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="BM21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="BN21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="BO21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="BP21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="BQ21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="BR21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="BS21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="BT21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="BU21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="BV21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="BW21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="BX21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="BY21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="BZ21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="CA21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="CB21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="CC21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="CD21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="CE21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="CF21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="CG21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="CH21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="CI21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="CJ21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="CK21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="CL21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="CM21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="CN21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="CO21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="CP21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="CQ21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="CR21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="CS21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="CT21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="CU21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="CV21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
       <c r="CW21" s="2">
-        <v>4.25531914893617</v>
+        <v>7.296137339055794</v>
       </c>
     </row>
     <row r="22" spans="2:101">
@@ -2003,314 +2009,314 @@
     </row>
     <row r="23" spans="2:101">
       <c r="B23" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="2:101">
       <c r="B24" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
     </row>
     <row r="25" spans="2:101">
       <c r="B25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="C25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="D25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="E25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="F25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="G25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="H25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="I25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="J25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="K25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="L25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="M25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="N25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="O25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="P25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="Q25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="R25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="S25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="T25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="U25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="V25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="W25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="X25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="Y25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="Z25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="AA25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="AB25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="AC25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="AD25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="AE25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="AF25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="AG25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="AH25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="AI25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="AJ25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="AK25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="AL25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="AM25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="AN25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="AO25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="AP25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="AQ25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="AR25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="AS25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="AT25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="AU25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="AV25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="AW25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="AX25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="AY25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="AZ25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="BA25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="BB25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="BC25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="BD25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="BE25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="BF25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="BG25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="BH25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="BI25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="BJ25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="BK25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="BL25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="BM25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="BN25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="BO25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="BP25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="BQ25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="BR25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="BS25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="BT25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="BU25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="BV25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="BW25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="BX25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="BY25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="BZ25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="CA25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="CB25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="CC25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="CD25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="CE25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="CF25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="CG25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="CH25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="CI25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="CJ25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="CK25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="CL25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="CM25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="CN25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="CO25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="CP25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="CQ25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="CR25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="CS25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="CT25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="CU25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="CV25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
       <c r="CW25" s="2">
-        <v>9.574468085106384</v>
+        <v>0.8583690987124464</v>
       </c>
     </row>
     <row r="26" spans="2:101">
@@ -2320,314 +2326,314 @@
     </row>
     <row r="27" spans="2:101">
       <c r="B27" s="2">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="2:101">
       <c r="B28" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
     </row>
     <row r="29" spans="2:101">
       <c r="B29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="C29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="D29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="E29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="F29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="G29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="H29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="I29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="J29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="K29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="L29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="M29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="N29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="O29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="P29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="Q29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="R29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="S29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="T29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="U29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="V29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="W29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="X29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="Y29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="Z29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="AA29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="AB29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="AC29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="AD29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="AE29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="AF29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="AG29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="AH29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="AI29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="AJ29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="AK29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="AL29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="AM29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="AN29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="AO29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="AP29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="AQ29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="AR29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="AS29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="AT29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="AU29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="AV29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="AW29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="AX29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="AY29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="AZ29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="BA29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="BB29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="BC29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="BD29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="BE29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="BF29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="BG29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="BH29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="BI29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="BJ29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="BK29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="BL29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="BM29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="BN29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="BO29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="BP29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="BQ29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="BR29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="BS29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="BT29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="BU29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="BV29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="BW29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="BX29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="BY29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="BZ29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="CA29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="CB29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="CC29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="CD29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="CE29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="CF29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="CG29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="CH29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="CI29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="CJ29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="CK29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="CL29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="CM29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="CN29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="CO29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="CP29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="CQ29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="CR29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="CS29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="CT29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="CU29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="CV29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
       <c r="CW29" s="2">
-        <v>31.91489361702128</v>
+        <v>2.575107296137339</v>
       </c>
     </row>
     <row r="30" spans="2:101">
@@ -2637,314 +2643,314 @@
     </row>
     <row r="31" spans="2:101">
       <c r="B31" s="2">
-        <v>4</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="2:101">
       <c r="B32" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
     </row>
     <row r="33" spans="2:101">
       <c r="B33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="C33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="D33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="E33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="F33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="G33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="H33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="I33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="J33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="K33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="L33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="M33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="N33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="O33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="P33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="Q33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="R33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="S33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="T33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="U33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="V33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="W33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="X33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="Y33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="Z33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="AA33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="AB33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="AC33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="AD33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="AE33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="AF33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="AG33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="AH33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="AI33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="AJ33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="AK33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="AL33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="AM33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="AN33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="AO33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="AP33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="AQ33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="AR33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="AS33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="AT33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="AU33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="AV33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="AW33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="AX33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="AY33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="AZ33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="BA33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="BB33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="BC33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="BD33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="BE33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="BF33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="BG33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="BH33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="BI33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="BJ33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="BK33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="BL33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="BM33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="BN33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="BO33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="BP33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="BQ33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="BR33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="BS33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="BT33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="BU33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="BV33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="BW33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="BX33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="BY33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="BZ33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="CA33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="CB33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="CC33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="CD33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="CE33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="CF33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="CG33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="CH33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="CI33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="CJ33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="CK33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="CL33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="CM33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="CN33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="CO33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="CP33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="CQ33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="CR33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="CS33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="CT33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="CU33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="CV33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
       <c r="CW33" s="2">
-        <v>4.25531914893617</v>
+        <v>24.46351931330472</v>
       </c>
     </row>
     <row r="34" spans="2:101">
@@ -2954,314 +2960,314 @@
     </row>
     <row r="35" spans="2:101">
       <c r="B35" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="2:101">
       <c r="B36" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
     </row>
     <row r="37" spans="2:101">
       <c r="B37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="C37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="D37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="E37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="F37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="G37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="H37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="I37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="J37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="K37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="L37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="M37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="N37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="O37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="P37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="Q37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="R37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="S37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="T37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="U37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="V37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="W37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="X37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="Y37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="Z37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="AA37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="AB37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="AC37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="AD37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="AE37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="AF37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="AG37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="AH37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="AI37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="AJ37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="AK37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="AL37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="AM37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="AN37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="AO37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="AP37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="AQ37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="AR37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="AS37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="AT37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="AU37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="AV37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="AW37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="AX37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="AY37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="AZ37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="BA37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="BB37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="BC37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="BD37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="BE37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="BF37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="BG37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="BH37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="BI37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="BJ37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="BK37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="BL37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="BM37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="BN37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="BO37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="BP37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="BQ37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="BR37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="BS37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="BT37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="BU37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="BV37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="BW37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="BX37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="BY37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="BZ37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="CA37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="CB37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="CC37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="CD37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="CE37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="CF37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="CG37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="CH37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="CI37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="CJ37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="CK37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="CL37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="CM37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="CN37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="CO37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="CP37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="CQ37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="CR37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="CS37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="CT37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="CU37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="CV37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
       <c r="CW37" s="2">
-        <v>12.76595744680851</v>
+        <v>6.008583690987124</v>
       </c>
     </row>
     <row r="38" spans="2:101">
@@ -3271,314 +3277,948 @@
     </row>
     <row r="39" spans="2:101">
       <c r="B39" s="2">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="2:101">
       <c r="B40" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
     </row>
     <row r="41" spans="2:101">
       <c r="B41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="C41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="D41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="E41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="F41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="G41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="H41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="I41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="J41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="K41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="L41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="M41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="N41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="O41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="P41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="Q41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="R41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="S41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="T41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="U41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="V41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="W41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="X41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="Y41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="Z41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="AA41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="AB41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="AC41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="AD41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="AE41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="AF41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="AG41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="AH41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="AI41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="AJ41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="AK41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="AL41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="AM41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="AN41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="AO41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="AP41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="AQ41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="AR41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="AS41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="AT41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="AU41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="AV41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="AW41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="AX41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="AY41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="AZ41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="BA41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="BB41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="BC41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="BD41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="BE41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="BF41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="BG41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="BH41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="BI41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="BJ41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="BK41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="BL41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="BM41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="BN41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="BO41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="BP41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="BQ41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="BR41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="BS41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="BT41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="BU41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="BV41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="BW41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="BX41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="BY41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="BZ41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="CA41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="CB41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="CC41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="CD41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="CE41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="CF41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="CG41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="CH41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="CI41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="CJ41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="CK41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="CL41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="CM41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="CN41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="CO41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="CP41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="CQ41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="CR41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="CS41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="CT41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="CU41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="CV41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="CW41" s="2">
-        <v>21.27659574468085</v>
+        <v>10.30042918454936</v>
+      </c>
+    </row>
+    <row r="42" spans="2:101">
+      <c r="B42" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:101">
+      <c r="B43" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="2:101">
+      <c r="B44" s="2">
+        <v>12.01716738197425</v>
+      </c>
+    </row>
+    <row r="45" spans="2:101">
+      <c r="B45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="C45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="D45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="E45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="F45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="G45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="H45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="I45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="J45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="K45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="L45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="M45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="N45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="O45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="P45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="R45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="S45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="T45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="U45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="V45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="W45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="X45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="Y45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="Z45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="AA45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="AB45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="AC45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="AD45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="AE45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="AF45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="AG45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="AH45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="AI45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="AJ45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="AK45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="AL45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="AM45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="AN45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="AO45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="AP45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="AQ45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="AR45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="AS45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="AT45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="AU45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="AV45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="AW45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="AX45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="AY45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="AZ45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="BA45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="BB45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="BC45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="BD45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="BE45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="BF45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="BG45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="BH45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="BI45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="BJ45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="BK45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="BL45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="BM45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="BN45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="BO45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="BP45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="BQ45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="BR45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="BS45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="BT45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="BU45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="BV45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="BW45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="BX45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="BY45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="BZ45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="CA45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="CB45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="CC45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="CD45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="CE45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="CF45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="CG45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="CH45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="CI45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="CJ45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="CK45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="CL45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="CM45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="CN45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="CO45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="CP45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="CQ45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="CR45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="CS45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="CT45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="CU45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="CV45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+      <c r="CW45" s="2">
+        <v>12.01716738197425</v>
+      </c>
+    </row>
+    <row r="46" spans="2:101">
+      <c r="B46" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:101">
+      <c r="B47" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:101">
+      <c r="B48" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+    </row>
+    <row r="49" spans="2:101">
+      <c r="B49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="E49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="F49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="G49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="H49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="J49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="K49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="L49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="M49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="N49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="O49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="P49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="R49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="S49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="T49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="U49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="V49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="W49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="X49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="Y49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="Z49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="AA49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="AB49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="AC49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="AD49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="AE49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="AF49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="AG49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="AH49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="AI49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="AJ49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="AK49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="AL49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="AM49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="AN49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="AO49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="AP49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="AQ49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="AR49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="AS49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="AT49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="AU49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="AV49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="AW49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="AX49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="AY49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="AZ49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="BA49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="BB49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="BC49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="BD49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="BE49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="BF49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="BG49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="BH49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="BI49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="BJ49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="BK49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="BL49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="BM49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="BN49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="BO49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="BP49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="BQ49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="BR49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="BS49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="BT49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="BU49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="BV49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="BW49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="BX49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="BY49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="BZ49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="CA49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="CB49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="CC49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="CD49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="CE49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="CF49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="CG49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="CH49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="CI49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="CJ49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="CK49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="CL49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="CM49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="CN49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="CO49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="CP49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="CQ49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="CR49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="CS49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="CT49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="CU49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="CV49" s="2">
+        <v>0.8583690987124464</v>
+      </c>
+      <c r="CW49" s="2">
+        <v>0.8583690987124464</v>
       </c>
     </row>
   </sheetData>

--- a/codes/test_shell_output/testPREP_NEW.xlsx
+++ b/codes/test_shell_output/testPREP_NEW.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>1 &amp; إلى &amp; 0</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>1 &amp; من &amp; 0</t>
-  </si>
-  <si>
-    <t>1 &amp; منذ &amp; 0</t>
   </si>
 </sst>
 </file>
@@ -411,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:CW49"/>
+  <dimension ref="B2:CW45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -424,314 +421,314 @@
     </row>
     <row r="3" spans="2:101">
       <c r="B3" s="2">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:101">
       <c r="B4" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
     </row>
     <row r="5" spans="2:101">
       <c r="B5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="C5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="D5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="E5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="F5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="G5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="H5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="I5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="J5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="K5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="L5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="M5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="N5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="O5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="P5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="Q5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="R5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="S5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="T5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="U5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="V5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="W5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="X5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="Y5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="Z5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AA5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AB5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AC5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AD5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AE5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AF5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AG5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AH5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AI5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AJ5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AK5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AL5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AM5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AN5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AO5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AP5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AQ5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AR5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AS5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AT5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AU5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AV5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AW5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AX5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AY5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AZ5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BA5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BB5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BC5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BD5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BE5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BF5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BG5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BH5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BI5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BJ5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BK5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BL5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BM5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BN5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BO5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BP5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BQ5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BR5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BS5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BT5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BU5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BV5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BW5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BX5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BY5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BZ5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CA5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CB5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CC5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CD5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CE5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CF5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CG5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CH5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CI5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CJ5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CK5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CL5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CM5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CN5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CO5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CP5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CQ5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CR5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CS5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CT5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CU5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CV5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CW5" s="2">
-        <v>7.725321888412017</v>
+        <v>3.435114503816794</v>
       </c>
     </row>
     <row r="6" spans="2:101">
@@ -741,314 +738,314 @@
     </row>
     <row r="7" spans="2:101">
       <c r="B7" s="2">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:101">
       <c r="B8" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
     </row>
     <row r="9" spans="2:101">
       <c r="B9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="C9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="D9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="E9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="F9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="G9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="H9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="I9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="J9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="K9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="L9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="M9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="N9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="O9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="P9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="Q9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="R9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="S9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="T9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="U9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="V9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="W9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="X9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="Y9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="Z9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AA9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AB9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AC9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AD9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AE9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AF9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AG9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AH9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AI9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AJ9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AK9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AL9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AM9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AN9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AO9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AP9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AQ9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AR9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AS9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AT9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AU9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AV9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AW9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AX9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AY9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AZ9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BA9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BB9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BC9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BD9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BE9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BF9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BG9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BH9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BI9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BJ9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BK9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BL9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BM9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BN9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BO9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BP9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BQ9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BR9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BS9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BT9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BU9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BV9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BW9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BX9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BY9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BZ9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CA9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CB9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CC9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CD9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CE9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CF9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CG9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CH9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CI9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CJ9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CK9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CL9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CM9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CN9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CO9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CP9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CQ9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CR9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CS9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CT9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CU9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CV9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CW9" s="2">
-        <v>4.721030042918455</v>
+        <v>0.7633587786259542</v>
       </c>
     </row>
     <row r="10" spans="2:101">
@@ -1058,314 +1055,314 @@
     </row>
     <row r="11" spans="2:101">
       <c r="B11" s="2">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="2:101">
       <c r="B12" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
     </row>
     <row r="13" spans="2:101">
       <c r="B13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="C13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="D13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="E13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="F13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="G13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="H13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="I13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="J13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="K13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="L13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="M13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="N13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="O13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="P13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="Q13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="R13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="S13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="T13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="U13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="V13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="W13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="X13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="Y13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="Z13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="AA13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="AB13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="AC13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="AD13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="AE13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="AF13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="AG13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="AH13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="AI13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="AJ13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="AK13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="AL13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="AM13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="AN13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="AO13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="AP13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="AQ13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="AR13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="AS13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="AT13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="AU13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="AV13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="AW13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="AX13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="AY13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="AZ13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="BA13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="BB13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="BC13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="BD13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="BE13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="BF13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="BG13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="BH13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="BI13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="BJ13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="BK13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="BL13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="BM13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="BN13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="BO13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="BP13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="BQ13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="BR13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="BS13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="BT13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="BU13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="BV13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="BW13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="BX13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="BY13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="BZ13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="CA13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="CB13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="CC13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="CD13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="CE13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="CF13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="CG13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="CH13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="CI13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="CJ13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="CK13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="CL13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="CM13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="CN13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="CO13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="CP13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="CQ13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="CR13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="CS13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="CT13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="CU13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="CV13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
       <c r="CW13" s="2">
-        <v>19.31330472103004</v>
+        <v>22.51908396946565</v>
       </c>
     </row>
     <row r="14" spans="2:101">
@@ -1375,314 +1372,314 @@
     </row>
     <row r="15" spans="2:101">
       <c r="B15" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="2:101">
       <c r="B16" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
     </row>
     <row r="17" spans="2:101">
       <c r="B17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="C17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="D17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="E17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="F17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="G17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="H17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="I17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="J17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="K17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="L17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="M17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="N17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="O17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="P17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="Q17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="R17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="S17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="T17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="U17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="V17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="W17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="X17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="Y17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="Z17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="AA17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="AB17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="AC17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="AD17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="AE17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="AF17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="AG17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="AH17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="AI17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="AJ17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="AK17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="AL17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="AM17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="AN17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="AO17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="AP17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="AQ17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="AR17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="AS17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="AT17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="AU17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="AV17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="AW17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="AX17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="AY17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="AZ17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="BA17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="BB17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="BC17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="BD17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="BE17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="BF17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="BG17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="BH17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="BI17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="BJ17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="BK17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="BL17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="BM17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="BN17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="BO17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="BP17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="BQ17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="BR17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="BS17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="BT17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="BU17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="BV17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="BW17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="BX17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="BY17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="BZ17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="CA17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="CB17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="CC17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="CD17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="CE17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="CF17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="CG17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="CH17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="CI17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="CJ17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="CK17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="CL17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="CM17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="CN17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="CO17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="CP17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="CQ17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="CR17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="CS17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="CT17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="CU17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="CV17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="CW17" s="2">
-        <v>3.862660944206008</v>
+        <v>2.290076335877862</v>
       </c>
     </row>
     <row r="18" spans="2:101">
@@ -1692,314 +1689,314 @@
     </row>
     <row r="19" spans="2:101">
       <c r="B19" s="2">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="2:101">
       <c r="B20" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
     </row>
     <row r="21" spans="2:101">
       <c r="B21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="C21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="D21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="E21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="F21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="G21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="H21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="I21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="J21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="K21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="L21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="M21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="N21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="O21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="P21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="Q21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="R21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="S21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="T21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="U21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="V21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="W21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="X21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="Y21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="Z21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="AA21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="AB21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="AC21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="AD21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="AE21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="AF21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="AG21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="AH21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="AI21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="AJ21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="AK21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="AL21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="AM21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="AN21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="AO21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="AP21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="AQ21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="AR21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="AS21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="AT21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="AU21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="AV21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="AW21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="AX21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="AY21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="AZ21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="BA21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="BB21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="BC21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="BD21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="BE21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="BF21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="BG21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="BH21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="BI21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="BJ21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="BK21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="BL21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="BM21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="BN21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="BO21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="BP21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="BQ21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="BR21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="BS21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="BT21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="BU21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="BV21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="BW21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="BX21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="BY21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="BZ21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="CA21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="CB21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="CC21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="CD21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="CE21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="CF21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="CG21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="CH21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="CI21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="CJ21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="CK21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="CL21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="CM21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="CN21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="CO21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="CP21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="CQ21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="CR21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="CS21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="CT21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="CU21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="CV21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
       <c r="CW21" s="2">
-        <v>7.296137339055794</v>
+        <v>9.16030534351145</v>
       </c>
     </row>
     <row r="22" spans="2:101">
@@ -2009,314 +2006,314 @@
     </row>
     <row r="23" spans="2:101">
       <c r="B23" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="2:101">
       <c r="B24" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
     </row>
     <row r="25" spans="2:101">
       <c r="B25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="C25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="D25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="E25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="F25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="G25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="H25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="I25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="J25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="K25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="L25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="M25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="N25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="O25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="P25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="Q25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="R25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="S25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="T25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="U25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="V25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="W25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="X25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="Y25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="Z25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="AA25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="AB25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="AC25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="AD25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="AE25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="AF25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="AG25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="AH25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="AI25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="AJ25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="AK25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="AL25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="AM25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="AN25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="AO25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="AP25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="AQ25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="AR25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="AS25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="AT25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="AU25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="AV25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="AW25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="AX25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="AY25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="AZ25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="BA25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="BB25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="BC25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="BD25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="BE25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="BF25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="BG25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="BH25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="BI25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="BJ25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="BK25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="BL25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="BM25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="BN25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="BO25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="BP25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="BQ25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="BR25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="BS25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="BT25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="BU25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="BV25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="BW25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="BX25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="BY25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="BZ25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="CA25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="CB25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="CC25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="CD25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="CE25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="CF25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="CG25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="CH25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="CI25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="CJ25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="CK25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="CL25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="CM25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="CN25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="CO25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="CP25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="CQ25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="CR25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="CS25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="CT25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="CU25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="CV25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="CW25" s="2">
-        <v>0.8583690987124464</v>
+        <v>3.816793893129771</v>
       </c>
     </row>
     <row r="26" spans="2:101">
@@ -2326,314 +2323,314 @@
     </row>
     <row r="27" spans="2:101">
       <c r="B27" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="2:101">
       <c r="B28" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
     </row>
     <row r="29" spans="2:101">
       <c r="B29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="C29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="D29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="E29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="F29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="G29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="H29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="I29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="J29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="K29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="L29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="M29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="N29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="O29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="P29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="Q29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="R29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="S29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="T29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="U29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="V29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="W29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="X29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="Y29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="Z29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AA29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AB29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AC29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AD29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AE29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AF29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AG29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AH29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AI29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AJ29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AK29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AL29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AM29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AN29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AO29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AP29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AQ29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AR29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AS29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AT29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AU29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AV29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AW29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AX29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AY29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="AZ29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BA29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BB29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BC29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BD29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BE29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BF29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BG29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BH29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BI29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BJ29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BK29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BL29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BM29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BN29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BO29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BP29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BQ29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BR29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BS29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BT29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BU29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BV29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BW29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BX29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BY29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="BZ29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CA29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CB29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CC29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CD29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CE29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CF29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CG29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CH29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CI29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CJ29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CK29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CL29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CM29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CN29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CO29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CP29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CQ29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CR29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CS29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CT29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CU29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CV29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="CW29" s="2">
-        <v>2.575107296137339</v>
+        <v>3.435114503816794</v>
       </c>
     </row>
     <row r="30" spans="2:101">
@@ -2643,314 +2640,314 @@
     </row>
     <row r="31" spans="2:101">
       <c r="B31" s="2">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="2:101">
       <c r="B32" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
     </row>
     <row r="33" spans="2:101">
       <c r="B33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="C33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="D33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="E33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="F33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="G33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="H33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="I33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="J33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="K33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="L33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="M33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="N33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="O33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="P33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="Q33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="R33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="S33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="T33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="U33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="V33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="W33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="X33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="Y33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="Z33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="AA33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="AB33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="AC33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="AD33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="AE33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="AF33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="AG33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="AH33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="AI33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="AJ33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="AK33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="AL33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="AM33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="AN33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="AO33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="AP33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="AQ33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="AR33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="AS33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="AT33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="AU33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="AV33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="AW33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="AX33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="AY33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="AZ33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="BA33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="BB33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="BC33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="BD33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="BE33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="BF33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="BG33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="BH33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="BI33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="BJ33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="BK33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="BL33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="BM33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="BN33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="BO33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="BP33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="BQ33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="BR33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="BS33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="BT33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="BU33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="BV33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="BW33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="BX33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="BY33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="BZ33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="CA33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="CB33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="CC33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="CD33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="CE33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="CF33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="CG33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="CH33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="CI33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="CJ33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="CK33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="CL33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="CM33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="CN33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="CO33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="CP33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="CQ33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="CR33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="CS33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="CT33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="CU33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="CV33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
       <c r="CW33" s="2">
-        <v>24.46351931330472</v>
+        <v>20.99236641221374</v>
       </c>
     </row>
     <row r="34" spans="2:101">
@@ -2960,314 +2957,314 @@
     </row>
     <row r="35" spans="2:101">
       <c r="B35" s="2">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="2:101">
       <c r="B36" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
     </row>
     <row r="37" spans="2:101">
       <c r="B37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="C37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="D37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="E37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="F37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="G37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="H37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="I37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="J37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="K37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="L37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="M37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="N37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="O37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="P37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="Q37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="R37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="S37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="T37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="U37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="V37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="W37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="X37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="Y37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="Z37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AA37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AB37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AC37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AD37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AE37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AF37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AG37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AH37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AI37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AJ37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AK37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AL37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AM37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AN37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AO37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AP37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AQ37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AR37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AS37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AT37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AU37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AV37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AW37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AX37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AY37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="AZ37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BA37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BB37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BC37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BD37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BE37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BF37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BG37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BH37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BI37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BJ37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BK37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BL37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BM37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BN37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BO37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BP37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BQ37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BR37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BS37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BT37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BU37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BV37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BW37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BX37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BY37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="BZ37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CA37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CB37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CC37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CD37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CE37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CF37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CG37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CH37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CI37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CJ37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CK37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CL37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CM37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CN37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CO37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CP37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CQ37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CR37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CS37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CT37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CU37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CV37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="CW37" s="2">
-        <v>6.008583690987124</v>
+        <v>0.7633587786259542</v>
       </c>
     </row>
     <row r="38" spans="2:101">
@@ -3277,314 +3274,314 @@
     </row>
     <row r="39" spans="2:101">
       <c r="B39" s="2">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="2:101">
       <c r="B40" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
     </row>
     <row r="41" spans="2:101">
       <c r="B41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="C41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="D41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="E41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="F41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="G41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="H41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="I41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="J41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="K41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="L41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="M41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="N41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="O41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="P41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="Q41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="R41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="S41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="T41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="U41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="V41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="W41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="X41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="Y41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="Z41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="AA41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="AB41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="AC41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="AD41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="AE41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="AF41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="AG41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="AH41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="AI41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="AJ41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="AK41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="AL41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="AM41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="AN41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="AO41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="AP41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="AQ41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="AR41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="AS41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="AT41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="AU41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="AV41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="AW41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="AX41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="AY41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="AZ41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="BA41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="BB41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="BC41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="BD41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="BE41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="BF41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="BG41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="BH41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="BI41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="BJ41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="BK41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="BL41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="BM41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="BN41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="BO41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="BP41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="BQ41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="BR41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="BS41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="BT41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="BU41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="BV41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="BW41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="BX41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="BY41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="BZ41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="CA41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="CB41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="CC41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="CD41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="CE41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="CF41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="CG41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="CH41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="CI41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="CJ41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="CK41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="CL41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="CM41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="CN41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="CO41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="CP41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="CQ41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="CR41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="CS41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="CT41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="CU41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="CV41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
       <c r="CW41" s="2">
-        <v>10.30042918454936</v>
+        <v>14.12213740458015</v>
       </c>
     </row>
     <row r="42" spans="2:101">
@@ -3594,631 +3591,314 @@
     </row>
     <row r="43" spans="2:101">
       <c r="B43" s="2">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="2:101">
       <c r="B44" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
     </row>
     <row r="45" spans="2:101">
       <c r="B45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="C45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="D45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="E45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="F45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="G45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="H45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="I45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="J45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="K45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="L45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="M45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="N45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="O45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="P45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="Q45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="R45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="S45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="T45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="U45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="V45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="W45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="X45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="Y45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="Z45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="AA45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="AB45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="AC45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="AD45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="AE45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="AF45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="AG45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="AH45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="AI45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="AJ45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="AK45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="AL45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="AM45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="AN45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="AO45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="AP45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="AQ45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="AR45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="AS45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="AT45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="AU45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="AV45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="AW45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="AX45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="AY45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="AZ45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="BA45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="BB45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="BC45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="BD45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="BE45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="BF45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="BG45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="BH45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="BI45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="BJ45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="BK45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="BL45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="BM45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="BN45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="BO45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="BP45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="BQ45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="BR45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="BS45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="BT45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="BU45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="BV45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="BW45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="BX45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="BY45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="BZ45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="CA45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="CB45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="CC45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="CD45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="CE45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="CF45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="CG45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="CH45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="CI45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="CJ45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="CK45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="CL45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="CM45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="CN45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="CO45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="CP45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="CQ45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="CR45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="CS45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="CT45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="CU45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="CV45" s="2">
-        <v>12.01716738197425</v>
+        <v>18.70229007633588</v>
       </c>
       <c r="CW45" s="2">
-        <v>12.01716738197425</v>
-      </c>
-    </row>
-    <row r="46" spans="2:101">
-      <c r="B46" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="2:101">
-      <c r="B47" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="2:101">
-      <c r="B48" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-    </row>
-    <row r="49" spans="2:101">
-      <c r="B49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="C49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="D49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="E49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="F49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="G49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="H49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="I49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="J49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="K49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="L49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="M49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="N49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="O49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="P49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="Q49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="R49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="S49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="T49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="U49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="V49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="W49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="X49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="Y49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="Z49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="AA49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="AB49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="AC49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="AD49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="AE49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="AF49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="AG49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="AH49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="AI49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="AJ49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="AK49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="AL49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="AM49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="AN49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="AO49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="AP49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="AQ49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="AR49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="AS49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="AT49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="AU49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="AV49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="AW49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="AX49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="AY49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="AZ49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="BA49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="BB49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="BC49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="BD49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="BE49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="BF49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="BG49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="BH49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="BI49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="BJ49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="BK49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="BL49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="BM49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="BN49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="BO49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="BP49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="BQ49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="BR49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="BS49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="BT49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="BU49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="BV49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="BW49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="BX49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="BY49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="BZ49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="CA49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="CB49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="CC49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="CD49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="CE49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="CF49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="CG49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="CH49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="CI49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="CJ49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="CK49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="CL49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="CM49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="CN49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="CO49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="CP49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="CQ49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="CR49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="CS49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="CT49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="CU49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="CV49" s="2">
-        <v>0.8583690987124464</v>
-      </c>
-      <c r="CW49" s="2">
-        <v>0.8583690987124464</v>
+        <v>18.70229007633588</v>
       </c>
     </row>
   </sheetData>

--- a/codes/test_shell_output/testPREP_NEW.xlsx
+++ b/codes/test_shell_output/testPREP_NEW.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>1 &amp; إلى &amp; 0</t>
   </si>
@@ -23,9 +23,6 @@
   </si>
   <si>
     <t>1 &amp; ب+ &amp; 0</t>
-  </si>
-  <si>
-    <t>1 &amp; حتى &amp; 0</t>
   </si>
   <si>
     <t>1 &amp; على &amp; 0</t>
@@ -408,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:CW45"/>
+  <dimension ref="B2:CW41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -421,314 +418,314 @@
     </row>
     <row r="3" spans="2:101">
       <c r="B3" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:101">
       <c r="B4" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
     </row>
     <row r="5" spans="2:101">
       <c r="B5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="C5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="D5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="E5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="F5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="G5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="H5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="I5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="J5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="K5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="L5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="M5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="N5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="O5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="P5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="Q5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="R5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="S5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="T5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="U5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="V5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="W5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="X5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="Y5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="Z5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="AA5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="AB5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="AC5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="AD5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="AE5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="AF5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="AG5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="AH5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="AI5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="AJ5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="AK5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="AL5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="AM5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="AN5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="AO5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="AP5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="AQ5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="AR5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="AS5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="AT5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="AU5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="AV5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="AW5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="AX5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="AY5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="AZ5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="BA5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="BB5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="BC5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="BD5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="BE5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="BF5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="BG5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="BH5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="BI5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="BJ5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="BK5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="BL5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="BM5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="BN5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="BO5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="BP5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="BQ5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="BR5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="BS5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="BT5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="BU5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="BV5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="BW5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="BX5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="BY5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="BZ5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="CA5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="CB5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="CC5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="CD5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="CE5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="CF5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="CG5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="CH5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="CI5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="CJ5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="CK5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="CL5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="CM5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="CN5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="CO5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="CP5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="CQ5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="CR5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="CS5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="CT5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="CU5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="CV5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
       <c r="CW5" s="2">
-        <v>3.435114503816794</v>
+        <v>2.816901408450704</v>
       </c>
     </row>
     <row r="6" spans="2:101">
@@ -738,314 +735,314 @@
     </row>
     <row r="7" spans="2:101">
       <c r="B7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:101">
       <c r="B8" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
     </row>
     <row r="9" spans="2:101">
       <c r="B9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="C9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="D9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="E9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="F9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="G9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="H9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="I9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="J9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="K9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="L9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="M9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="N9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="O9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="P9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="Q9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="R9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="S9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="T9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="U9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="V9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="W9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="X9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="Y9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="Z9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="AA9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="AB9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="AC9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="AD9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="AE9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="AF9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="AG9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="AH9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="AI9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="AJ9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="AK9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="AL9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="AM9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="AN9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="AO9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="AP9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="AQ9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="AR9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="AS9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="AT9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="AU9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="AV9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="AW9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="AX9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="AY9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="AZ9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="BA9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="BB9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="BC9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="BD9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="BE9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="BF9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="BG9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="BH9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="BI9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="BJ9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="BK9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="BL9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="BM9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="BN9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="BO9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="BP9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="BQ9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="BR9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="BS9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="BT9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="BU9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="BV9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="BW9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="BX9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="BY9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="BZ9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="CA9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="CB9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="CC9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="CD9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="CE9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="CF9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="CG9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="CH9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="CI9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="CJ9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="CK9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="CL9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="CM9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="CN9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="CO9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="CP9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="CQ9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="CR9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="CS9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="CT9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="CU9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="CV9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="CW9" s="2">
-        <v>0.7633587786259542</v>
+        <v>0.704225352112676</v>
       </c>
     </row>
     <row r="10" spans="2:101">
@@ -1055,314 +1052,314 @@
     </row>
     <row r="11" spans="2:101">
       <c r="B11" s="2">
-        <v>59</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="2:101">
       <c r="B12" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
     </row>
     <row r="13" spans="2:101">
       <c r="B13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="C13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="D13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="E13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="F13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="G13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="H13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="I13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="J13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="K13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="L13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="M13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="N13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="O13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="P13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="Q13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="R13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="S13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="T13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="U13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="V13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="W13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="X13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="Y13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="Z13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="AA13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="AB13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="AC13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="AD13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="AE13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="AF13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="AG13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="AH13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="AI13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="AJ13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="AK13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="AL13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="AM13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="AN13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="AO13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="AP13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="AQ13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="AR13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="AS13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="AT13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="AU13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="AV13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="AW13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="AX13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="AY13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="AZ13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="BA13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="BB13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="BC13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="BD13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="BE13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="BF13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="BG13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="BH13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="BI13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="BJ13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="BK13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="BL13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="BM13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="BN13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="BO13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="BP13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="BQ13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="BR13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="BS13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="BT13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="BU13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="BV13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="BW13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="BX13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="BY13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="BZ13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="CA13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="CB13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="CC13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="CD13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="CE13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="CF13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="CG13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="CH13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="CI13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="CJ13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="CK13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="CL13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="CM13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="CN13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="CO13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="CP13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="CQ13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="CR13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="CS13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="CT13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="CU13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="CV13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
       <c r="CW13" s="2">
-        <v>22.51908396946565</v>
+        <v>16.19718309859155</v>
       </c>
     </row>
     <row r="14" spans="2:101">
@@ -1372,314 +1369,314 @@
     </row>
     <row r="15" spans="2:101">
       <c r="B15" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="2:101">
       <c r="B16" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
     </row>
     <row r="17" spans="2:101">
       <c r="B17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="C17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="D17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="E17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="F17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="G17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="H17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="I17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="J17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="K17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="L17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="M17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="N17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="O17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="P17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="Q17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="R17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="S17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="T17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="U17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="V17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="W17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="X17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="Y17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="Z17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="AA17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="AB17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="AC17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="AD17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="AE17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="AF17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="AG17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="AH17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="AI17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="AJ17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="AK17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="AL17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="AM17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="AN17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="AO17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="AP17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="AQ17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="AR17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="AS17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="AT17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="AU17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="AV17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="AW17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="AX17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="AY17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="AZ17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="BA17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="BB17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="BC17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="BD17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="BE17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="BF17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="BG17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="BH17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="BI17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="BJ17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="BK17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="BL17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="BM17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="BN17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="BO17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="BP17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="BQ17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="BR17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="BS17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="BT17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="BU17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="BV17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="BW17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="BX17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="BY17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="BZ17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="CA17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="CB17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="CC17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="CD17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="CE17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="CF17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="CG17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="CH17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="CI17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="CJ17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="CK17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="CL17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="CM17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="CN17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="CO17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="CP17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="CQ17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="CR17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="CS17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="CT17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="CU17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="CV17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="CW17" s="2">
-        <v>2.290076335877862</v>
+        <v>7.042253521126761</v>
       </c>
     </row>
     <row r="18" spans="2:101">
@@ -1689,314 +1686,314 @@
     </row>
     <row r="19" spans="2:101">
       <c r="B19" s="2">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="2:101">
       <c r="B20" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
     </row>
     <row r="21" spans="2:101">
       <c r="B21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="C21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="D21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="E21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="F21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="G21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="H21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="I21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="J21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="K21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="L21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="M21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="N21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="O21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="P21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="Q21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="R21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="S21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="T21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="U21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="V21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="W21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="X21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="Y21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="Z21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="AA21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="AB21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="AC21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="AD21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="AE21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="AF21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="AG21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="AH21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="AI21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="AJ21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="AK21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="AL21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="AM21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="AN21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="AO21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="AP21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="AQ21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="AR21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="AS21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="AT21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="AU21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="AV21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="AW21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="AX21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="AY21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="AZ21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="BA21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="BB21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="BC21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="BD21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="BE21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="BF21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="BG21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="BH21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="BI21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="BJ21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="BK21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="BL21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="BM21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="BN21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="BO21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="BP21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="BQ21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="BR21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="BS21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="BT21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="BU21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="BV21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="BW21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="BX21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="BY21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="BZ21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="CA21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="CB21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="CC21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="CD21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="CE21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="CF21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="CG21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="CH21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="CI21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="CJ21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="CK21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="CL21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="CM21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="CN21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="CO21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="CP21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="CQ21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="CR21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="CS21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="CT21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="CU21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="CV21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
       <c r="CW21" s="2">
-        <v>9.16030534351145</v>
+        <v>4.929577464788732</v>
       </c>
     </row>
     <row r="22" spans="2:101">
@@ -2006,314 +2003,314 @@
     </row>
     <row r="23" spans="2:101">
       <c r="B23" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="2:101">
       <c r="B24" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
     </row>
     <row r="25" spans="2:101">
       <c r="B25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="C25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="D25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="E25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="F25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="G25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="H25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="I25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="J25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="K25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="L25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="M25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="N25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="O25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="P25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="Q25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="R25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="S25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="T25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="U25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="V25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="W25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="X25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="Y25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="Z25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="AA25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="AB25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="AC25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="AD25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="AE25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="AF25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="AG25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="AH25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="AI25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="AJ25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="AK25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="AL25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="AM25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="AN25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="AO25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="AP25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="AQ25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="AR25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="AS25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="AT25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="AU25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="AV25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="AW25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="AX25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="AY25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="AZ25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="BA25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="BB25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="BC25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="BD25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="BE25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="BF25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="BG25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="BH25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="BI25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="BJ25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="BK25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="BL25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="BM25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="BN25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="BO25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="BP25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="BQ25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="BR25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="BS25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="BT25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="BU25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="BV25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="BW25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="BX25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="BY25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="BZ25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="CA25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="CB25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="CC25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="CD25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="CE25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="CF25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="CG25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="CH25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="CI25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="CJ25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="CK25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="CL25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="CM25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="CN25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="CO25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="CP25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="CQ25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="CR25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="CS25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="CT25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="CU25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="CV25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
       <c r="CW25" s="2">
-        <v>3.816793893129771</v>
+        <v>2.112676056338028</v>
       </c>
     </row>
     <row r="26" spans="2:101">
@@ -2323,314 +2320,314 @@
     </row>
     <row r="27" spans="2:101">
       <c r="B27" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="2:101">
       <c r="B28" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
     </row>
     <row r="29" spans="2:101">
       <c r="B29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="C29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="D29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="E29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="F29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="G29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="H29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="I29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="J29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="K29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="L29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="M29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="N29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="O29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="P29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="Q29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="R29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="S29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="T29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="U29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="V29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="W29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="X29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="Y29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="Z29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="AA29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="AB29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="AC29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="AD29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="AE29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="AF29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="AG29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="AH29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="AI29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="AJ29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="AK29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="AL29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="AM29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="AN29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="AO29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="AP29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="AQ29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="AR29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="AS29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="AT29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="AU29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="AV29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="AW29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="AX29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="AY29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="AZ29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="BA29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="BB29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="BC29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="BD29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="BE29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="BF29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="BG29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="BH29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="BI29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="BJ29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="BK29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="BL29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="BM29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="BN29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="BO29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="BP29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="BQ29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="BR29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="BS29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="BT29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="BU29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="BV29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="BW29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="BX29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="BY29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="BZ29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="CA29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="CB29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="CC29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="CD29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="CE29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="CF29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="CG29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="CH29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="CI29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="CJ29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="CK29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="CL29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="CM29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="CN29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="CO29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="CP29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="CQ29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="CR29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="CS29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="CT29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="CU29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="CV29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
       <c r="CW29" s="2">
-        <v>3.435114503816794</v>
+        <v>9.154929577464788</v>
       </c>
     </row>
     <row r="30" spans="2:101">
@@ -2640,314 +2637,314 @@
     </row>
     <row r="31" spans="2:101">
       <c r="B31" s="2">
-        <v>55</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="2:101">
       <c r="B32" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
     </row>
     <row r="33" spans="2:101">
       <c r="B33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="C33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="D33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="E33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="F33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="G33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="H33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="I33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="J33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="K33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="L33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="M33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="N33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="O33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="P33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="Q33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="R33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="S33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="T33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="U33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="V33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="W33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="X33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="Y33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="Z33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="AA33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="AB33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="AC33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="AD33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="AE33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="AF33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="AG33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="AH33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="AI33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="AJ33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="AK33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="AL33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="AM33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="AN33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="AO33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="AP33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="AQ33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="AR33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="AS33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="AT33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="AU33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="AV33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="AW33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="AX33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="AY33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="AZ33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="BA33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="BB33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="BC33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="BD33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="BE33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="BF33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="BG33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="BH33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="BI33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="BJ33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="BK33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="BL33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="BM33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="BN33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="BO33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="BP33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="BQ33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="BR33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="BS33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="BT33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="BU33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="BV33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="BW33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="BX33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="BY33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="BZ33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="CA33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="CB33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="CC33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="CD33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="CE33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="CF33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="CG33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="CH33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="CI33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="CJ33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="CK33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="CL33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="CM33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="CN33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="CO33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="CP33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="CQ33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="CR33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="CS33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="CT33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="CU33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="CV33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
       <c r="CW33" s="2">
-        <v>20.99236641221374</v>
+        <v>1.408450704225352</v>
       </c>
     </row>
     <row r="34" spans="2:101">
@@ -2957,314 +2954,314 @@
     </row>
     <row r="35" spans="2:101">
       <c r="B35" s="2">
-        <v>2</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="2:101">
       <c r="B36" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
     </row>
     <row r="37" spans="2:101">
       <c r="B37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="C37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="D37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="E37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="F37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="G37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="H37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="I37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="J37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="K37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="L37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="M37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="N37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="O37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="P37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="Q37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="R37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="S37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="T37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="U37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="V37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="W37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="X37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="Y37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="Z37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="AA37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="AB37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="AC37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="AD37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="AE37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="AF37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="AG37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="AH37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="AI37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="AJ37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="AK37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="AL37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="AM37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="AN37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="AO37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="AP37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="AQ37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="AR37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="AS37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="AT37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="AU37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="AV37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="AW37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="AX37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="AY37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="AZ37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="BA37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="BB37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="BC37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="BD37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="BE37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="BF37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="BG37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="BH37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="BI37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="BJ37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="BK37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="BL37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="BM37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="BN37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="BO37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="BP37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="BQ37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="BR37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="BS37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="BT37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="BU37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="BV37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="BW37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="BX37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="BY37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="BZ37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="CA37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="CB37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="CC37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="CD37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="CE37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="CF37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="CG37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="CH37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="CI37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="CJ37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="CK37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="CL37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="CM37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="CN37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="CO37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="CP37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="CQ37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="CR37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="CS37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="CT37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="CU37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="CV37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
       <c r="CW37" s="2">
-        <v>0.7633587786259542</v>
+        <v>27.46478873239437</v>
       </c>
     </row>
     <row r="38" spans="2:101">
@@ -3274,631 +3271,314 @@
     </row>
     <row r="39" spans="2:101">
       <c r="B39" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="2:101">
       <c r="B40" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
     </row>
     <row r="41" spans="2:101">
       <c r="B41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="C41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="D41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="E41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="F41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="G41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="H41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="I41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="J41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="K41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="L41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="M41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="N41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="O41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="P41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="Q41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="R41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="S41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="T41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="U41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="V41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="W41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="X41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="Y41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="Z41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="AA41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="AB41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="AC41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="AD41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="AE41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="AF41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="AG41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="AH41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="AI41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="AJ41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="AK41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="AL41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="AM41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="AN41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="AO41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="AP41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="AQ41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="AR41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="AS41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="AT41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="AU41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="AV41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="AW41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="AX41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="AY41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="AZ41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="BA41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="BB41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="BC41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="BD41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="BE41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="BF41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="BG41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="BH41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="BI41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="BJ41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="BK41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="BL41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="BM41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="BN41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="BO41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="BP41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="BQ41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="BR41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="BS41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="BT41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="BU41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="BV41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="BW41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="BX41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="BY41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="BZ41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="CA41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="CB41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="CC41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="CD41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="CE41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="CF41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="CG41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="CH41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="CI41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="CJ41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="CK41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="CL41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="CM41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="CN41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="CO41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="CP41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="CQ41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="CR41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="CS41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="CT41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="CU41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="CV41" s="2">
-        <v>14.12213740458015</v>
+        <v>28.16901408450704</v>
       </c>
       <c r="CW41" s="2">
-        <v>14.12213740458015</v>
-      </c>
-    </row>
-    <row r="42" spans="2:101">
-      <c r="B42" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="2:101">
-      <c r="B43" s="2">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="2:101">
-      <c r="B44" s="2">
-        <v>18.70229007633588</v>
-      </c>
-    </row>
-    <row r="45" spans="2:101">
-      <c r="B45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="C45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="D45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="E45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="F45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="G45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="H45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="I45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="J45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="K45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="L45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="M45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="N45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="O45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="P45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="Q45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="R45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="S45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="T45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="U45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="V45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="W45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="X45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="Y45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="Z45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="AA45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="AB45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="AC45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="AD45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="AE45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="AF45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="AG45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="AH45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="AI45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="AJ45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="AK45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="AL45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="AM45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="AN45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="AO45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="AP45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="AQ45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="AR45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="AS45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="AT45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="AU45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="AV45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="AW45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="AX45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="AY45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="AZ45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="BA45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="BB45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="BC45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="BD45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="BE45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="BF45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="BG45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="BH45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="BI45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="BJ45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="BK45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="BL45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="BM45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="BN45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="BO45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="BP45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="BQ45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="BR45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="BS45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="BT45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="BU45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="BV45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="BW45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="BX45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="BY45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="BZ45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="CA45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="CB45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="CC45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="CD45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="CE45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="CF45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="CG45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="CH45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="CI45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="CJ45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="CK45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="CL45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="CM45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="CN45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="CO45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="CP45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="CQ45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="CR45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="CS45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="CT45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="CU45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="CV45" s="2">
-        <v>18.70229007633588</v>
-      </c>
-      <c r="CW45" s="2">
-        <v>18.70229007633588</v>
+        <v>28.16901408450704</v>
       </c>
     </row>
   </sheetData>
